--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Fiche de Stock 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Fiche de Stock 2025.xlsx
@@ -5683,8 +5683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48:H48"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6454,17 +6454,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="30"/>
+      <c r="G32" s="30">
+        <v>26</v>
+      </c>
       <c r="H32" s="25"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L32" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6554,17 +6556,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G36" s="30"/>
+      <c r="G36" s="30">
+        <v>8</v>
+      </c>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="22"/>
       <c r="K36" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L36" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6666,7 +6670,7 @@
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
@@ -6682,11 +6686,11 @@
       </c>
       <c r="K40" s="16">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6786,7 +6790,7 @@
       <c r="F46" s="73"/>
       <c r="G46" s="84">
         <f>L40+G45</f>
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H46" s="79"/>
       <c r="I46" s="78"/>
@@ -6805,7 +6809,7 @@
       <c r="F47" s="73"/>
       <c r="G47" s="84">
         <f>G43+G44-G46</f>
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="H47" s="79"/>
       <c r="I47" s="78"/>
@@ -6823,7 +6827,7 @@
       <c r="E48" s="73"/>
       <c r="F48" s="73"/>
       <c r="G48" s="78">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="H48" s="79"/>
       <c r="I48" s="78"/>
@@ -6842,7 +6846,7 @@
       <c r="F49" s="73"/>
       <c r="G49" s="85">
         <f>G47-G48</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H49" s="86"/>
       <c r="I49" s="87"/>

--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Fiche de Stock 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Fiche de Stock 2025.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="75" windowWidth="11700" windowHeight="5505" activeTab="3"/>
+    <workbookView xWindow="555" yWindow="75" windowWidth="11700" windowHeight="5505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="JANVIER 2025" sheetId="34" r:id="rId1"/>
     <sheet name="FEVRIER 2025" sheetId="35" r:id="rId2"/>
     <sheet name="MARS 2025" sheetId="36" r:id="rId3"/>
     <sheet name="AVRIL 2025" sheetId="37" r:id="rId4"/>
+    <sheet name="MAI 2025" sheetId="38" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="42">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -163,6 +164,12 @@
   <si>
     <t>01 Compteurs DN 80 Destination Antenne Seghouane</t>
   </si>
+  <si>
+    <t>Mois de MAI 2025</t>
+  </si>
+  <si>
+    <t>01 Compteurs DN 15/21 Destination Antenne Zoubiria</t>
+  </si>
 </sst>
 </file>
 
@@ -838,7 +845,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,6 +999,12 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1650,6 +1663,133 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="10800000">
+          <a:off x="5610225" y="8210550"/>
+          <a:ext cx="958850" cy="1139825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T1" fmla="*/ 0 h 21600"/>
+            <a:gd name="T2" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T3" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T4" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T5" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T6" fmla="*/ 2147483647 w 21600"/>
+            <a:gd name="T7" fmla="*/ 2147483647 h 21600"/>
+            <a:gd name="T8" fmla="*/ 17694720 60000 65536"/>
+            <a:gd name="T9" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T10" fmla="*/ 5898240 60000 65536"/>
+            <a:gd name="T11" fmla="*/ 0 60000 65536"/>
+            <a:gd name="T12" fmla="*/ 12427 w 21600"/>
+            <a:gd name="T13" fmla="*/ 2912 h 21600"/>
+            <a:gd name="T14" fmla="*/ 18227 w 21600"/>
+            <a:gd name="T15" fmla="*/ 9246 h 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="T8">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="T9">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="T10">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="T11">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="T12" t="T13" r="T14" b="T15"/>
+          <a:pathLst>
+            <a:path w="21600" h="21600">
+              <a:moveTo>
+                <a:pt x="21600" y="6079"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="15126" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="2912"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="12427" y="2912"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5564" y="2912"/>
+                <a:pt x="0" y="7052"/>
+                <a:pt x="0" y="12158"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="0" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="21600"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="6474" y="12158"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="6474" y="10550"/>
+                <a:pt x="9139" y="9246"/>
+                <a:pt x="12427" y="9246"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="15126" y="9246"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="15126" y="12158"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="21600" y="6079"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1950,48 +2090,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="32"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="32"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -2002,36 +2142,36 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -2043,36 +2183,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="12"/>
       <c r="K6" s="34"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="66" t="s">
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="35" t="s">
         <v>11</v>
       </c>
@@ -2103,7 +2243,7 @@
       <c r="K8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="67"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -2954,149 +3094,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69" t="s">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70" t="s">
+      <c r="H42" s="72"/>
+      <c r="I42" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="71"/>
+      <c r="J42" s="73"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="74">
-        <v>0</v>
-      </c>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76">
+        <v>0</v>
+      </c>
+      <c r="H43" s="77"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="79"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="78">
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="80">
         <v>100</v>
       </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="79"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="81"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="81">
-        <v>0</v>
-      </c>
-      <c r="H45" s="82"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="83"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="83">
+        <v>0</v>
+      </c>
+      <c r="H45" s="84"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="85"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="84">
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="86">
         <f>L40+G45</f>
         <v>13</v>
       </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="79"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="81"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="84">
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="86">
         <f>G43+G44-G46</f>
         <v>87</v>
       </c>
-      <c r="H47" s="79"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="79"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="81"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="78">
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="80">
         <v>87</v>
       </c>
-      <c r="H48" s="79"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="79"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="81"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="85">
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="87">
         <f>G47-G48</f>
         <v>0</v>
       </c>
-      <c r="H49" s="86"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="86"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="88"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -3180,48 +3320,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="32"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="32"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -3232,36 +3372,36 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3273,36 +3413,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="12"/>
       <c r="K6" s="34"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="66" t="s">
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="35" t="s">
         <v>11</v>
       </c>
@@ -3333,7 +3473,7 @@
       <c r="K8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="67"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -4188,149 +4328,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69" t="s">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70" t="s">
+      <c r="H42" s="72"/>
+      <c r="I42" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="71"/>
+      <c r="J42" s="73"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="74">
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76">
         <v>87</v>
       </c>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="79"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="78">
-        <v>0</v>
-      </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="79"/>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="80">
+        <v>0</v>
+      </c>
+      <c r="H44" s="81"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="81"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="81">
-        <v>0</v>
-      </c>
-      <c r="H45" s="82"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="83"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="83">
+        <v>0</v>
+      </c>
+      <c r="H45" s="84"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="85"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="84">
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="86">
         <f>L40+G45</f>
         <v>22</v>
       </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="79"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="81"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="84">
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="86">
         <f>G43+G44-G46</f>
         <v>65</v>
       </c>
-      <c r="H47" s="79"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="79"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="81"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="78">
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="80">
         <v>64</v>
       </c>
-      <c r="H48" s="79"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="79"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="81"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="85">
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="87">
         <f>G47-G48</f>
         <v>1</v>
       </c>
-      <c r="H49" s="86"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="86"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="88"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -4419,48 +4559,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="32"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="32"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -4471,36 +4611,36 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4512,36 +4652,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="12"/>
       <c r="K6" s="34"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="66" t="s">
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="35" t="s">
         <v>11</v>
       </c>
@@ -4572,7 +4712,7 @@
       <c r="K8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="67"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -5443,149 +5583,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69" t="s">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70" t="s">
+      <c r="H42" s="72"/>
+      <c r="I42" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="71"/>
+      <c r="J42" s="73"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="74">
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76">
         <v>64</v>
       </c>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="79"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="78">
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="80">
         <v>5</v>
       </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="79"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="81"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="81">
-        <v>0</v>
-      </c>
-      <c r="H45" s="82"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="83"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="83">
+        <v>0</v>
+      </c>
+      <c r="H45" s="84"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="85"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="84">
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="86">
         <f>L40+G45</f>
         <v>54</v>
       </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="79"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="81"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="84">
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="86">
         <f>G43+G44-G46</f>
         <v>15</v>
       </c>
-      <c r="H47" s="79"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="79"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="81"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="78">
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="80">
         <v>6</v>
       </c>
-      <c r="H48" s="79"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="79"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="81"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="85">
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="87">
         <f>G47-G48</f>
         <v>9</v>
       </c>
-      <c r="H49" s="86"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="86"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="88"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -5683,8 +5823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5694,48 +5834,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="E1" s="32"/>
       <c r="F1" s="33"/>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="32"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="32"/>
       <c r="F3" s="33"/>
       <c r="G3" s="33"/>
@@ -5746,36 +5886,36 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
     </row>
     <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -5787,36 +5927,36 @@
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="J6" s="12"/>
       <c r="K6" s="34"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65" t="s">
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="66" t="s">
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="68" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="35" t="s">
         <v>11</v>
       </c>
@@ -5847,7 +5987,7 @@
       <c r="K8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="67"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -6455,10 +6595,12 @@
         <v>0</v>
       </c>
       <c r="G32" s="30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H32" s="25"/>
-      <c r="I32" s="30"/>
+      <c r="I32" s="30">
+        <v>1</v>
+      </c>
       <c r="J32" s="30"/>
       <c r="K32" s="15">
         <f t="shared" si="1"/>
@@ -6670,7 +6812,7 @@
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
@@ -6678,7 +6820,7 @@
       </c>
       <c r="I40" s="16">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" si="4"/>
@@ -6708,149 +6850,149 @@
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="68"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="69" t="s">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70" t="s">
+      <c r="H42" s="72"/>
+      <c r="I42" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="J42" s="71"/>
+      <c r="J42" s="73"/>
       <c r="K42" s="11"/>
       <c r="L42" s="13"/>
     </row>
     <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="74">
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76">
         <v>6</v>
       </c>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="79"/>
       <c r="K43" s="11"/>
       <c r="L43" s="13"/>
     </row>
     <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14"/>
-      <c r="B44" s="72" t="s">
+      <c r="B44" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="78">
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="80">
         <v>110</v>
       </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="79"/>
+      <c r="H44" s="81"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="81"/>
       <c r="K44" s="11"/>
       <c r="L44" s="13"/>
     </row>
     <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14"/>
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="81">
-        <v>0</v>
-      </c>
-      <c r="H45" s="82"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="83"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="83">
+        <v>0</v>
+      </c>
+      <c r="H45" s="84"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="85"/>
       <c r="K45" s="11"/>
       <c r="L45" s="13"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="14"/>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="84">
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="86">
         <f>L40+G45</f>
         <v>44</v>
       </c>
-      <c r="H46" s="79"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="79"/>
+      <c r="H46" s="81"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="81"/>
       <c r="K46" s="11"/>
       <c r="L46" s="13"/>
     </row>
     <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="84">
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="86">
         <f>G43+G44-G46</f>
         <v>72</v>
       </c>
-      <c r="H47" s="79"/>
-      <c r="I47" s="78"/>
-      <c r="J47" s="79"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="81"/>
       <c r="K47" s="11"/>
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73"/>
-      <c r="G48" s="78">
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="80">
         <v>67</v>
       </c>
-      <c r="H48" s="79"/>
-      <c r="I48" s="78"/>
-      <c r="J48" s="79"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="81"/>
       <c r="K48" s="11"/>
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="85">
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="87">
         <f>G47-G48</f>
         <v>5</v>
       </c>
-      <c r="H49" s="86"/>
-      <c r="I49" s="87"/>
-      <c r="J49" s="86"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="88"/>
       <c r="K49" s="11"/>
       <c r="L49" s="3"/>
     </row>
@@ -6891,6 +7033,1239 @@
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="B44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="I49:J49"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="90" orientation="portrait" horizontalDpi="360" verticalDpi="180" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49:H49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="12" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+    </row>
+    <row r="6" spans="1:12" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="63"/>
+      <c r="B8" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
+        <f>SUM(B9:E9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="15">
+        <f>SUM(G9:J9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <f>SUM(F9+K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="17">
+        <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="30"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="15">
+        <f t="shared" ref="K10:K39" si="1">SUM(G10:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="30"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="21">
+        <v>2</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="31">
+        <v>5</v>
+      </c>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L12" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <v>7</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25">
+        <v>1</v>
+      </c>
+      <c r="J14" s="30"/>
+      <c r="K14" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L14" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="21"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="30"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="30"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="30"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="30"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="30"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="30"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>13</v>
+      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="30"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>14</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="30"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="30"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="30"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="30"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="30"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="30"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="30"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>27</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="41"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="30"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="30"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9">
+        <v>31</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="30"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="55">
+        <f>SUM(B9:B39)</f>
+        <v>2</v>
+      </c>
+      <c r="C40" s="55">
+        <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="54">
+        <f>SUM(F9:F39)</f>
+        <v>2</v>
+      </c>
+      <c r="G40" s="16">
+        <f>SUM(G9:G39)</f>
+        <v>13</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="L40" s="16">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="70"/>
+      <c r="B42" s="70"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="73"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
+      <c r="B43" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="76">
+        <v>67</v>
+      </c>
+      <c r="H43" s="77"/>
+      <c r="I43" s="78"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
+      <c r="B44" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="75"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="75"/>
+      <c r="F44" s="75"/>
+      <c r="G44" s="80">
+        <v>0</v>
+      </c>
+      <c r="H44" s="81"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="81"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="82"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="82"/>
+      <c r="F45" s="74"/>
+      <c r="G45" s="83">
+        <v>0</v>
+      </c>
+      <c r="H45" s="84"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="75"/>
+      <c r="D46" s="75"/>
+      <c r="E46" s="75"/>
+      <c r="F46" s="75"/>
+      <c r="G46" s="86">
+        <f>L40+G45</f>
+        <v>16</v>
+      </c>
+      <c r="H46" s="81"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="81"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="75"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="75"/>
+      <c r="F47" s="75"/>
+      <c r="G47" s="86">
+        <f>G43+G44-G46</f>
+        <v>51</v>
+      </c>
+      <c r="H47" s="81"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="81"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="75"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="75"/>
+      <c r="F48" s="75"/>
+      <c r="G48" s="80">
+        <v>50</v>
+      </c>
+      <c r="H48" s="81"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="75"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="75"/>
+      <c r="F49" s="75"/>
+      <c r="G49" s="87">
+        <f>G47-G48</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="88"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="88"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="39"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="1"/>
+    </row>
+    <row r="51" spans="1:12" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Gestion Stock 2025/Gestion de Stock Berrouaghia/Fiche de Stock 2025.xlsx
+++ b/Gestion Stock 2025/Gestion de Stock Berrouaghia/Fiche de Stock 2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Suivie Pose Compteurs\Gestion Stock 2025\Gestion de Stock Berrouaghia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048F317E-80FB-4BB4-8A6F-B6DE25DD131A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B695702-7461-47C1-AB9A-5BA55B28C21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JANVIER 2025" sheetId="34" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="79">
   <si>
     <t>Algérienne des Eaux</t>
   </si>
@@ -5667,8 +5667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16ABCD44-0655-44F2-976D-D97965A02313}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S60" sqref="S60"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6943,10 +6943,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44DBF41-BC58-4A9B-BA54-0242F4426329}">
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49:H49"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7115,13 +7115,15 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
       <c r="C9" s="19"/>
       <c r="D9" s="47"/>
       <c r="E9" s="20"/>
       <c r="F9" s="17">
         <f>SUM(B9:E9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="41"/>
       <c r="H9" s="29"/>
@@ -7133,20 +7135,22 @@
       </c>
       <c r="L9" s="7">
         <f>SUM(F9+K9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="21">
+        <v>8</v>
+      </c>
       <c r="C10" s="25"/>
       <c r="D10" s="22"/>
       <c r="E10" s="23"/>
       <c r="F10" s="17">
         <f t="shared" ref="F10:F39" si="0">SUM(B10:E10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10" s="30"/>
       <c r="H10" s="25"/>
@@ -7158,32 +7162,36 @@
       </c>
       <c r="L10" s="7">
         <f t="shared" ref="L10:L39" si="2">SUM(F10+K10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>3</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="21">
+        <v>4</v>
+      </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22"/>
       <c r="E11" s="24"/>
       <c r="F11" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="30"/>
+        <v>4</v>
+      </c>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
       <c r="H11" s="25"/>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7265,13 +7273,15 @@
       <c r="A15" s="8">
         <v>7</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="21">
+        <v>9</v>
+      </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="E15" s="24"/>
       <c r="F15" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G15" s="30"/>
       <c r="H15" s="25"/>
@@ -7283,20 +7293,22 @@
       </c>
       <c r="L15" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>8</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="21">
+        <v>2</v>
+      </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="23"/>
       <c r="F16" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" s="30"/>
       <c r="H16" s="25"/>
@@ -7308,20 +7320,22 @@
       </c>
       <c r="L16" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>9</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="21">
+        <v>3</v>
+      </c>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="E17" s="24"/>
       <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="25"/>
@@ -7333,20 +7347,22 @@
       </c>
       <c r="L17" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>10</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="21">
+        <v>3</v>
+      </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
       <c r="E18" s="24"/>
       <c r="F18" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="25"/>
@@ -7358,7 +7374,7 @@
       </c>
       <c r="L18" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7440,13 +7456,17 @@
       <c r="A22" s="8">
         <v>14</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="21">
+        <v>5</v>
+      </c>
       <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
+      <c r="D22" s="25">
+        <v>1</v>
+      </c>
       <c r="E22" s="23"/>
       <c r="F22" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="25"/>
@@ -7458,7 +7478,7 @@
       </c>
       <c r="L22" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7490,13 +7510,15 @@
       <c r="A24" s="8">
         <v>16</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="21">
+        <v>2</v>
+      </c>
       <c r="C24" s="22"/>
       <c r="D24" s="25"/>
       <c r="E24" s="23"/>
       <c r="F24" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="25"/>
@@ -7508,32 +7530,36 @@
       </c>
       <c r="L24" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>17</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="21">
+        <v>5</v>
+      </c>
       <c r="C25" s="43"/>
       <c r="D25" s="25"/>
       <c r="E25" s="23"/>
       <c r="F25" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="G25" s="30">
+        <v>1</v>
+      </c>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="30"/>
       <c r="K25" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7615,38 +7641,44 @@
       <c r="A29" s="8">
         <v>21</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="21">
+        <v>7</v>
+      </c>
       <c r="C29" s="22"/>
       <c r="D29" s="25"/>
       <c r="E29" s="24"/>
       <c r="F29" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="G29" s="30">
+        <v>1</v>
+      </c>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="30"/>
       <c r="K29" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>22</v>
       </c>
-      <c r="B30" s="21"/>
+      <c r="B30" s="21">
+        <v>9</v>
+      </c>
       <c r="C30" s="22"/>
       <c r="D30" s="25"/>
       <c r="E30" s="23"/>
       <c r="F30" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="25"/>
@@ -7658,20 +7690,22 @@
       </c>
       <c r="L30" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>23</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="21">
+        <v>5</v>
+      </c>
       <c r="C31" s="22"/>
       <c r="D31" s="25"/>
       <c r="E31" s="23"/>
       <c r="F31" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31" s="30"/>
       <c r="H31" s="22"/>
@@ -7683,45 +7717,53 @@
       </c>
       <c r="L31" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>24</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="21">
+        <v>8</v>
+      </c>
       <c r="C32" s="22"/>
       <c r="D32" s="25"/>
       <c r="E32" s="23"/>
       <c r="F32" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="G32" s="30">
+        <v>1</v>
+      </c>
       <c r="H32" s="25"/>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
       <c r="K32" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>25</v>
       </c>
-      <c r="B33" s="21"/>
+      <c r="B33" s="21">
+        <v>1</v>
+      </c>
       <c r="C33" s="22"/>
-      <c r="D33" s="25"/>
+      <c r="D33" s="25">
+        <v>1</v>
+      </c>
       <c r="E33" s="23"/>
       <c r="F33" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G33" s="30"/>
       <c r="H33" s="22"/>
@@ -7733,7 +7775,7 @@
       </c>
       <c r="L33" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7790,13 +7832,15 @@
       <c r="A36" s="8">
         <v>28</v>
       </c>
-      <c r="B36" s="21"/>
+      <c r="B36" s="21">
+        <v>5</v>
+      </c>
       <c r="C36" s="22"/>
       <c r="D36" s="25"/>
       <c r="E36" s="23"/>
       <c r="F36" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G36" s="30"/>
       <c r="H36" s="25"/>
@@ -7808,20 +7852,22 @@
       </c>
       <c r="L36" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>29</v>
       </c>
-      <c r="B37" s="21"/>
+      <c r="B37" s="21">
+        <v>5</v>
+      </c>
       <c r="C37" s="25"/>
       <c r="D37" s="22"/>
       <c r="E37" s="23"/>
       <c r="F37" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G37" s="30"/>
       <c r="H37" s="25"/>
@@ -7833,7 +7879,7 @@
       </c>
       <c r="L37" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7890,7 +7936,7 @@
       <c r="A40" s="10"/>
       <c r="B40" s="46">
         <f>SUM(B9:B39)</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="C40" s="46">
         <f t="shared" ref="C40:E40" si="3">SUM(C9:C39)</f>
@@ -7898,7 +7944,7 @@
       </c>
       <c r="D40" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E40" s="46">
         <f t="shared" si="3"/>
@@ -7906,11 +7952,11 @@
       </c>
       <c r="F40" s="45">
         <f>SUM(F9:F39)</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G40" s="16">
         <f>SUM(G9:G39)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" ref="H40:L40" si="4">SUM(H9:H39)</f>
@@ -7926,11 +7972,11 @@
       </c>
       <c r="K40" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -8030,7 +8076,7 @@
       <c r="F46" s="50"/>
       <c r="G46" s="56">
         <f>L40+G45</f>
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="H46" s="52"/>
       <c r="I46" s="51"/>
@@ -8049,7 +8095,7 @@
       <c r="F47" s="50"/>
       <c r="G47" s="56">
         <f>G43+G44-G46</f>
-        <v>542</v>
+        <v>454</v>
       </c>
       <c r="H47" s="52"/>
       <c r="I47" s="51"/>
@@ -8067,7 +8113,7 @@
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
       <c r="G48" s="51">
-        <v>524</v>
+        <v>448</v>
       </c>
       <c r="H48" s="52"/>
       <c r="I48" s="51"/>
@@ -8086,7 +8132,7 @@
       <c r="F49" s="50"/>
       <c r="G49" s="53">
         <f>G47-G48</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H49" s="54"/>
       <c r="I49" s="55"/>
@@ -8116,6 +8162,21 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -8150,12 +8211,12 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
